--- a/data/minutes.xlsx
+++ b/data/minutes.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58777c4a60c85cc9/monash_collaboration/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58777c4a60c85cc9/monash_collaboration/th_bri_railway/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{9C53E6F8-C55A-46D6-A3FF-65F73BBD7319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0FE745D-1E86-43B9-86A1-1ED7B6EC7A02}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{9C53E6F8-C55A-46D6-A3FF-65F73BBD7319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BE3E2D-73CD-43D1-B600-270522E6D515}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="minutes" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">minutes!$A$1:$I$272</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="301">
   <si>
     <t>session</t>
   </si>
@@ -106,9 +110,6 @@
     <t>China Railway Construction Corporation (CRCC) and China Railway Engineering Corportation (CREC) will be responsible for the construction works</t>
   </si>
   <si>
-    <t>China Railway Group Limited will be responsible for the manufacturing of the train parts and equipment</t>
-  </si>
-  <si>
     <t>China Railway Highspeed (CRH) will be responsible for the signal and control systems</t>
   </si>
   <si>
@@ -127,9 +128,6 @@
     <t>Thailand will be responsible for the cost of EIA</t>
   </si>
   <si>
-    <t>The Import and Export Bank of China (IEBC) and the Ministry of Finance (Thailand) will discuss the financial matters and the related conditions</t>
-  </si>
-  <si>
     <t>201,25</t>
   </si>
   <si>
@@ -244,12 +242,6 @@
     <t>Thailand proposed the training be commenced as soon as possible as well as the exchange of specialists</t>
   </si>
   <si>
-    <t>Thailand will consider the the loan offer from The Import and Export Bank of the People's Republic of China (IEBC) after the feasibility study has been completed</t>
-  </si>
-  <si>
-    <t>The IEBC proposed that the loan terms will based on the weighted cost of capital according to the Thai and the international financial markets, as well as similar projects that IEBC had given loans to in the past.</t>
-  </si>
-  <si>
     <t>Both sides agreed that the CRC and the State Railway of Thailand shall work closely together as well as working in parallel in activities such as planning the locations of train and railway locations, the EIA, the feasibility study etc. such that the construction can begin by October 2015</t>
   </si>
   <si>
@@ -289,9 +281,6 @@
     <t>Both sides agreed to have the State Railway of Thailand (SRT) establish a joint venture with a Chinese railway entity to invest in the railway system, operation and maintenance, and civil work</t>
   </si>
   <si>
-    <t>The IEBC will provide details on the loan terms and conditions to Thailand</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beijing Jiaotong University will provide short-term training sessions for executive-level officials and future trainers in 2015 </t>
   </si>
   <si>
@@ -319,9 +308,6 @@
     <t>China confirmed that the loan terms and conditions will be the most favorable compared to other options</t>
   </si>
   <si>
-    <t>The Thai Public Debt Management Office (PDMO) will notify China on the process for the Thai government to borrow money from abroad</t>
-  </si>
-  <si>
     <t>Thailand sent the first batch of officials to attend a training session in China and will send the second batch to train in October 2015</t>
   </si>
   <si>
@@ -376,9 +362,6 @@
     <t>Thailand will be the sole project financier according to what was discussed between the leaders of the two countries (does not mention who the leaders were)</t>
   </si>
   <si>
-    <t>Both sides agreed to breakdown the EPC contracts  into a civil work contract (EPC-1) and a railway and high-speed train contract (EPC-2)</t>
-  </si>
-  <si>
     <t>Thailand will be responsible for the civil work contract (EPC-1) by hiring domestic contractors</t>
   </si>
   <si>
@@ -406,24 +389,15 @@
     <t>China agreed to provide a favorable loan term</t>
   </si>
   <si>
-    <t>Both sides agreed to break down the construction into minor routes. The BKK-Ratchasima is designated as the first route and is to begin in September 2016</t>
-  </si>
-  <si>
     <t>Both sides agreed on the estimated project cost as jointly proposed by the SRT and the CRIC</t>
   </si>
   <si>
     <t>Thailand will negotiate with China on the second EPC contract and reach an agreement before the next meeting</t>
   </si>
   <si>
-    <t>Thailand asserted that the loan currency provided by the IEBC must be in accordance with the second EPC contract</t>
-  </si>
-  <si>
     <t>Both sides agreed on the preliminary loan terms: currency will be RMB and the interest rate shall be cheaper than the market could offer</t>
   </si>
   <si>
-    <t>IEBC will submit a loan proposal for discussion during the next meeting. The proposal will be based on both RMB and USD.</t>
-  </si>
-  <si>
     <t>Thailand requested China to support with the costs associated with the feasbility studies</t>
   </si>
   <si>
@@ -445,9 +419,6 @@
     <t>Thailand will provide feedbacks on the technical studies by August 15, 2016</t>
   </si>
   <si>
-    <t>Both sides agreed to adhere to the project timeline so that the cooperation framework could be signed during the next meeting</t>
-  </si>
-  <si>
     <t>China submitted the loan proposal with terms and conditions based on the RMB currency and the revised contract draft</t>
   </si>
   <si>
@@ -484,9 +455,6 @@
     <t>Thailand submitted feedbacks on apportioning the second EPC contract (EPC-2) into three sub-contracts: (1) Engineering design (2) Engineering Consulting and (3) Procurement of signalling, maintenance, and training. Both sides should be able to reach an agreement by October 2016</t>
   </si>
   <si>
-    <t>China will draft the technical specification section and the construction section of the tender document with the goal to submit the tender document by November 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">Both sides agreed to extend the target costruction of the first route by December 2016, as discussed between the Prime Minster of Thailand and President Xi </t>
   </si>
   <si>
@@ -547,9 +515,6 @@
     <t>Thailand pushed for 11 out of 12 materials to be procured domestically</t>
   </si>
   <si>
-    <t>China will provide the technical details on "Deformed Bars Steel" which is a material that cannot be procured domestically</t>
-  </si>
-  <si>
     <t>China will support Thailand with communicating the technical specifications to steel manufacturers in Thailand</t>
   </si>
   <si>
@@ -583,12 +548,6 @@
     <t>China notified that TSDI has changed its name to CRDC</t>
   </si>
   <si>
-    <t>China provided the technical details on "Deformed Bars Steel", which is a material that cannot be procured domestically</t>
-  </si>
-  <si>
-    <t>Both sides agreed that the technical working group will review the technical details on the "Deformed Bars Steel"</t>
-  </si>
-  <si>
     <t>Both sides acknowledged that the railway tract under this project cannot be used for connecting Bangsue-Donmuang route</t>
   </si>
   <si>
@@ -640,9 +599,6 @@
     <t>China reiterated its intention to conduct knowledge and technology transfer within bounds described by the rules and regulations of the two countries</t>
   </si>
   <si>
-    <t>Both sides agreed to the revised technical specifications for the "Deformed Bars Steel" material (carbon content, welding capability). This had allowed for domestic sourcing.</t>
-  </si>
-  <si>
     <t>Both sides agreed to plan the BKK-NongKhai high-speed railway project as soon as possible</t>
   </si>
   <si>
@@ -877,9 +833,6 @@
     <t>Both sides agreed to seek internal approval for the Contract 2.3 and will make every effort to get the contract signed during the Second Belt and Road Initative Meeting in China</t>
   </si>
   <si>
-    <t>Both sides agreed to cooperate on financial matters as outlined in the loan proposal, submitted on July 30 2018, by the IEBC</t>
-  </si>
-  <si>
     <t>Both sides will resolve the remaining disagreements regarding the loan proposal</t>
   </si>
   <si>
@@ -920,6 +873,60 @@
   </si>
   <si>
     <t>36</t>
+  </si>
+  <si>
+    <t>Both sides agreed to adhere to the project timeline and to sign the MOU during the next meeting</t>
+  </si>
+  <si>
+    <t>China Railway Group Limited will be responsible for the manufacturing of the train components and equipment</t>
+  </si>
+  <si>
+    <t>The Thai Public Debt Management Office (PDMO) will notify China on the process for the Thai government to borrow money from foreign sources</t>
+  </si>
+  <si>
+    <t>Both sides agreed to breakdown the EPC contracts into a civil work contract (EPC-1) and a railway and high-speed train contract (EPC-2)</t>
+  </si>
+  <si>
+    <t>China will provide the technical details on rebar (steel) which is a material that cannot be procured domestically</t>
+  </si>
+  <si>
+    <t>China provided the technical details on rebar (steel), which is a material that cannot be procured domestically</t>
+  </si>
+  <si>
+    <t>Both sides agreed to the revised technical specifications for the rebar (steel) material (carbon content, welding capability). This had allowed for domestic sourcing.</t>
+  </si>
+  <si>
+    <t>Both sides agreed that the technical working group will review the technical details on the rebar (steel)</t>
+  </si>
+  <si>
+    <t>China will revise the technical specifications from Chinese standards to the international standards. This would help with comparing the technical specifications to the Thai standards</t>
+  </si>
+  <si>
+    <t>China will include additional information on the design of civil works so the construction cost could be estimated. The goal is to submit the tender document by November 2016</t>
+  </si>
+  <si>
+    <t>The CEXIM will provide details on the loan terms and conditions to Thailand</t>
+  </si>
+  <si>
+    <t>Thailand asserted that the loan currency provided by the CEXIM must be in accordance with the second EPC contract</t>
+  </si>
+  <si>
+    <t>CEXIM will submit a loan proposal for discussion during the next meeting. The proposal will be based on both RMB and USD.</t>
+  </si>
+  <si>
+    <t>The China Export and Import Bank (CEXIM) and the Ministry of Finance (Thailand) will discuss the financial matters and the related conditions</t>
+  </si>
+  <si>
+    <t>Thailand will consider the the loan offer from The Import and Export Bank of the People's Republic of China (CEXIM) after the feasibility study has been completed</t>
+  </si>
+  <si>
+    <t>The CEXIM proposed that the loan terms will based on the weighted cost of capital according to the Thai and the international financial markets, as well as similar projects that CEXIM had given loans to in the past.</t>
+  </si>
+  <si>
+    <t>Both sides agreed to cooperate on financial matters as outlined in the loan proposal, submitted on July 30 2018, by the CEXIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BKK-Ratchasima is designated as the first route and is to begin in September 2016.Both sides agreed to break down the construction into minor routes. </t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1069,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1242,6 +1249,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1403,12 +1422,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1764,20 +1785,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I270"/>
+  <dimension ref="A1:I272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="41.90625" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="41.9296875" customWidth="1"/>
+    <col min="6" max="7" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1823,7 +1844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1844,7 +1865,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1867,7 +1888,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1894,7 +1915,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1921,7 +1942,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1942,7 +1963,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1960,7 +1981,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1981,7 +2002,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2005,7 +2026,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2026,7 +2047,7 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2053,7 +2074,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2080,7 +2101,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2103,7 +2124,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2126,7 +2147,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2143,10 +2164,10 @@
         <v>12</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2157,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -2166,7 +2187,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2177,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -2186,7 +2207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2197,17 +2218,17 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
         <v>30</v>
       </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2218,14 +2239,14 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2236,14 +2257,14 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2254,14 +2275,14 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2272,16 +2293,16 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2292,14 +2313,14 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2310,14 +2331,14 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2328,14 +2349,14 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2346,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -2356,7 +2377,7 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2367,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
@@ -2377,7 +2398,7 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2388,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -2401,7 +2422,7 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2412,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
         <v>20</v>
@@ -2425,7 +2446,7 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2436,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
@@ -2452,7 +2473,7 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2463,14 +2484,14 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2481,14 +2502,14 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2499,14 +2520,14 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2517,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2526,10 +2547,10 @@
         <v>14</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2540,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -2553,7 +2574,7 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2564,7 +2585,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -2577,7 +2598,7 @@
       </c>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2588,10 +2609,10 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G38" s="1">
         <v>42338</v>
@@ -2600,10 +2621,10 @@
         <v>1</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2614,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -2624,7 +2645,7 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2635,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -2648,7 +2669,7 @@
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2659,19 +2680,19 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2682,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -2695,7 +2716,7 @@
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2706,7 +2727,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -2719,7 +2740,7 @@
       </c>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2730,10 +2751,10 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G44" s="1">
         <v>42428</v>
@@ -2742,10 +2763,10 @@
         <v>16</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2756,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -2769,7 +2790,7 @@
       </c>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2780,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -2793,7 +2814,7 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2804,17 +2825,17 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2825,14 +2846,14 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2843,14 +2864,14 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
       </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2861,14 +2882,14 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2879,14 +2900,14 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2897,14 +2918,14 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
       </c>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2915,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2924,7 +2945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2935,14 +2956,14 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
         <v>20</v>
       </c>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2953,14 +2974,14 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
         <v>20</v>
       </c>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2971,14 +2992,14 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
       </c>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2989,14 +3010,14 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
         <v>20</v>
       </c>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3007,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="E58" t="s">
         <v>20</v>
@@ -3016,7 +3037,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3027,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3036,7 +3057,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3047,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -3059,10 +3080,10 @@
         <v>14</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3073,14 +3094,14 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3091,14 +3112,14 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E62" t="s">
         <v>20</v>
       </c>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3109,14 +3130,14 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
       </c>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3127,14 +3148,14 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
       </c>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3145,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -3155,7 +3176,7 @@
       </c>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3166,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -3176,7 +3197,7 @@
       </c>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3187,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E67" t="s">
         <v>20</v>
@@ -3200,7 +3221,7 @@
       </c>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3211,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -3221,7 +3242,7 @@
       </c>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3232,14 +3253,14 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
       </c>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3250,7 +3271,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -3259,7 +3280,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3270,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>89</v>
+        <v>293</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -3279,7 +3300,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3290,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -3302,7 +3323,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3313,7 +3334,7 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -3325,7 +3346,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3336,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3349,7 +3370,7 @@
       </c>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3360,7 +3381,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3369,11 +3390,11 @@
         <v>42338</v>
       </c>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3384,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E76" t="s">
         <v>20</v>
@@ -3393,7 +3414,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3404,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -3414,7 +3435,7 @@
       </c>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3425,14 +3446,14 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3443,14 +3464,14 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
       </c>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3461,7 +3482,7 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="E80" t="s">
         <v>20</v>
@@ -3470,7 +3491,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3481,14 +3502,14 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
       </c>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3499,14 +3520,14 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
       </c>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3514,10 +3535,10 @@
         <v>8</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -3530,9 +3551,9 @@
       </c>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -3541,24 +3562,15 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>103</v>
-      </c>
-      <c r="E84" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="2">
-        <v>42305</v>
-      </c>
-      <c r="G84" s="2">
-        <v>42358</v>
-      </c>
-      <c r="I84" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -3567,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -3578,11 +3590,13 @@
       <c r="G85" s="2">
         <v>42358</v>
       </c>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I85" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86">
         <v>8</v>
@@ -3591,88 +3605,86 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
       </c>
+      <c r="F86" s="2">
+        <v>42305</v>
+      </c>
       <c r="G86" s="2">
-        <v>42704</v>
+        <v>42358</v>
       </c>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87">
         <v>8</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G87" s="2">
+        <v>42704</v>
       </c>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88">
         <v>8</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="2">
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="2">
         <v>42338</v>
       </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89">
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90">
         <v>87</v>
       </c>
-      <c r="B89">
-        <v>9</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>108</v>
-      </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="2">
-        <v>42305</v>
-      </c>
-      <c r="G89" s="2">
-        <v>42357</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>88</v>
-      </c>
       <c r="B90">
         <v>9</v>
       </c>
@@ -3680,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
@@ -3689,13 +3701,15 @@
         <v>42305</v>
       </c>
       <c r="G90" s="2">
-        <v>42354</v>
-      </c>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+        <v>42357</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91">
         <v>9</v>
@@ -3704,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
@@ -3717,97 +3731,103 @@
       </c>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92">
         <v>9</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F92" s="2">
         <v>42305</v>
       </c>
       <c r="G92" s="2">
+        <v>42354</v>
+      </c>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="2">
+        <v>42305</v>
+      </c>
+      <c r="G93" s="2">
         <v>42408</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I93" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94">
         <v>91</v>
       </c>
-      <c r="B93">
-        <v>9</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>112</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94">
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95">
         <v>92</v>
-      </c>
-      <c r="B94">
-        <v>10</v>
-      </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94" t="s">
-        <v>114</v>
-      </c>
-      <c r="E94" t="s">
-        <v>20</v>
-      </c>
-      <c r="F94" s="2">
-        <v>42452</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>93</v>
       </c>
       <c r="B95">
         <v>10</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="F95" s="2">
+        <v>42452</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
       </c>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96">
         <v>10</v>
@@ -3816,73 +3836,73 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="2">
-        <v>42509</v>
-      </c>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97">
         <v>10</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="G97" s="2">
+        <v>42509</v>
       </c>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98">
         <v>10</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99">
         <v>10</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100">
         <v>10</v>
@@ -3891,16 +3911,16 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101">
         <v>10</v>
@@ -3909,34 +3929,34 @@
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E101" t="s">
         <v>12</v>
       </c>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102">
         <v>10</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103">
         <v>10</v>
@@ -3945,73 +3965,73 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
       </c>
-      <c r="G103" s="2">
-        <v>42643</v>
-      </c>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104">
         <v>10</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E104" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="G104" s="2">
+        <v>42643</v>
       </c>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105">
         <v>10</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106">
         <v>10</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E106" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -4020,46 +4040,43 @@
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A109">
         <v>106</v>
-      </c>
-      <c r="B108">
-        <v>11</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108" t="s">
-        <v>128</v>
-      </c>
-      <c r="E108" t="s">
-        <v>9</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>107</v>
       </c>
       <c r="B109">
         <v>11</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>129</v>
+        <v>300</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -4067,60 +4084,58 @@
       <c r="H109">
         <v>1</v>
       </c>
-      <c r="I109" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110">
         <v>11</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
       </c>
-      <c r="G110" s="2">
-        <v>42582</v>
-      </c>
       <c r="H110">
         <v>1</v>
       </c>
-      <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I110" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111">
         <v>11</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E111" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="G111" s="2">
+        <v>42582</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
-      <c r="I111" s="3">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112">
         <v>11</v>
@@ -4129,19 +4144,21 @@
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
-      <c r="I112" s="3"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I112" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113">
         <v>11</v>
@@ -4150,24 +4167,19 @@
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="2">
-        <v>42582</v>
+        <v>9</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
-      <c r="I113" s="3">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114">
         <v>11</v>
@@ -4176,40 +4188,45 @@
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="E114" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="G114" s="2">
+        <v>42582</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
-      <c r="I114" s="3"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I114" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115">
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E115" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116">
         <v>12</v>
@@ -4218,7 +4235,7 @@
         <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -4228,126 +4245,129 @@
       </c>
       <c r="I116" s="3"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117" t="s">
+        <v>126</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A118">
         <v>115</v>
       </c>
-      <c r="B117">
-        <v>12</v>
-      </c>
-      <c r="C117">
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118">
         <v>4</v>
       </c>
-      <c r="D117" t="s">
-        <v>137</v>
-      </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-      <c r="I117" s="3"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118">
+      <c r="D118" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A119">
         <v>116</v>
       </c>
-      <c r="B118">
-        <v>12</v>
-      </c>
-      <c r="C118">
-        <v>2</v>
-      </c>
-      <c r="D118" t="s">
-        <v>138</v>
-      </c>
-      <c r="E118" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118">
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>128</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119">
         <v>107</v>
       </c>
-      <c r="I118" s="3"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119">
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A120">
         <v>117</v>
       </c>
-      <c r="B119">
-        <v>12</v>
-      </c>
-      <c r="C119">
-        <v>2</v>
-      </c>
-      <c r="D119" t="s">
-        <v>139</v>
-      </c>
-      <c r="E119" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119" s="3"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120">
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>129</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A121">
         <v>118</v>
       </c>
-      <c r="B120">
-        <v>12</v>
-      </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s">
-        <v>140</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>130</v>
+      </c>
+      <c r="E121" t="s">
         <v>20</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G121" s="2">
         <v>42598</v>
       </c>
-      <c r="I120" s="3"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121">
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A122">
         <v>119</v>
       </c>
-      <c r="B121">
-        <v>12</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121" t="s">
-        <v>141</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="G121" s="2">
+      <c r="B122">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>283</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="2">
         <v>42643</v>
       </c>
-      <c r="I121" s="3"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122">
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A123">
         <v>120</v>
-      </c>
-      <c r="B122">
-        <v>12</v>
-      </c>
-      <c r="C122">
-        <v>2</v>
-      </c>
-      <c r="D122" t="s">
-        <v>142</v>
-      </c>
-      <c r="E122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" s="3"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>121</v>
       </c>
       <c r="B123">
         <v>12</v>
@@ -4356,106 +4376,106 @@
         <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <v>12</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>132</v>
+      </c>
+      <c r="E124" t="s">
         <v>20</v>
       </c>
-      <c r="I123" s="3"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124">
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A125">
         <v>122</v>
-      </c>
-      <c r="B124">
-        <v>13</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124" t="s">
-        <v>144</v>
-      </c>
-      <c r="E124" t="s">
-        <v>9</v>
-      </c>
-      <c r="I124" s="3"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>123</v>
       </c>
       <c r="B125">
         <v>13</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
       </c>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126">
         <v>13</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127">
         <v>13</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E127" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128">
         <v>13</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E128" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129">
         <v>13</v>
@@ -4464,57 +4484,57 @@
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
-      </c>
-      <c r="I129" s="3">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130">
         <v>13</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
-      </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-      <c r="I130" s="3"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="I130" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131">
         <v>13</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
       </c>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132">
         <v>13</v>
@@ -4523,131 +4543,119 @@
         <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E132" t="s">
         <v>9</v>
       </c>
-      <c r="I132" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133" t="s">
+        <v>141</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A134">
         <v>131</v>
-      </c>
-      <c r="B133">
-        <v>14</v>
-      </c>
-      <c r="C133">
-        <v>4</v>
-      </c>
-      <c r="D133" t="s">
-        <v>153</v>
-      </c>
-      <c r="E133" t="s">
-        <v>20</v>
-      </c>
-      <c r="I133" s="3"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134">
-        <v>132</v>
       </c>
       <c r="B134">
         <v>14</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="2">
-        <v>42704</v>
+        <v>20</v>
       </c>
       <c r="I134" s="3"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135">
         <v>14</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="G135" s="2">
+        <v>12</v>
+      </c>
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>292</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="2">
+        <v>42704</v>
+      </c>
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>143</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="2">
         <v>42735</v>
       </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>15</v>
-      </c>
-      <c r="C136">
-        <v>2</v>
-      </c>
-      <c r="D136" t="s">
-        <v>157</v>
-      </c>
-      <c r="E136" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="2">
-        <v>42669</v>
-      </c>
-      <c r="G136" s="2">
-        <v>42704</v>
-      </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="I136" s="3"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137">
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A138">
         <v>135</v>
-      </c>
-      <c r="B137">
-        <v>15</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137" t="s">
-        <v>158</v>
-      </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="I137" s="3"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138">
-        <v>136</v>
       </c>
       <c r="B138">
         <v>15</v>
@@ -4656,82 +4664,88 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F138" s="2">
+        <v>42669</v>
+      </c>
+      <c r="G138" s="2">
+        <v>42704</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139">
         <v>15</v>
       </c>
       <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>146</v>
+      </c>
+      <c r="E139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>147</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141">
+        <v>15</v>
+      </c>
+      <c r="C141">
         <v>3</v>
       </c>
-      <c r="D139" t="s">
-        <v>160</v>
-      </c>
-      <c r="E139" t="s">
-        <v>12</v>
-      </c>
-      <c r="H139">
-        <v>1</v>
-      </c>
-      <c r="I139" s="3"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>16</v>
-      </c>
-      <c r="C140">
-        <v>2</v>
-      </c>
-      <c r="D140" t="s">
-        <v>161</v>
-      </c>
-      <c r="E140" t="s">
-        <v>12</v>
-      </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
-      <c r="I140" s="3"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A141">
+      <c r="D141" t="s">
+        <v>148</v>
+      </c>
+      <c r="E141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A142">
         <v>139</v>
-      </c>
-      <c r="B141">
-        <v>16</v>
-      </c>
-      <c r="C141">
-        <v>2</v>
-      </c>
-      <c r="D141" t="s">
-        <v>162</v>
-      </c>
-      <c r="E141" t="s">
-        <v>20</v>
-      </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-      <c r="I141" s="3"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A142">
-        <v>140</v>
       </c>
       <c r="B142">
         <v>16</v>
@@ -4740,7 +4754,7 @@
         <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -4750,9 +4764,9 @@
       </c>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143">
         <v>16</v>
@@ -4761,19 +4775,19 @@
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143" s="3"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144">
         <v>16</v>
@@ -4782,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E144" t="s">
         <v>12</v>
@@ -4792,173 +4806,170 @@
       </c>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145">
         <v>16</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E145" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H145">
-        <v>2</v>
-      </c>
-      <c r="I145" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146">
         <v>16</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E146" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H146">
-        <v>4</v>
-      </c>
-      <c r="I146" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147">
         <v>16</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E147" t="s">
         <v>20</v>
       </c>
-      <c r="I147" s="3"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148">
         <v>16</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E148" t="s">
         <v>20</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I148" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149">
         <v>16</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E149" t="s">
         <v>20</v>
       </c>
-      <c r="H149">
-        <v>1</v>
-      </c>
-      <c r="I149" s="3">
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>16</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>157</v>
+      </c>
+      <c r="E150" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151">
+        <v>16</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>158</v>
+      </c>
+      <c r="E151" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>17</v>
-      </c>
-      <c r="C150">
-        <v>4</v>
-      </c>
-      <c r="D150" t="s">
-        <v>171</v>
-      </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="H150">
-        <v>1</v>
-      </c>
-      <c r="I150" s="3"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A152">
         <v>149</v>
-      </c>
-      <c r="B151">
-        <v>17</v>
-      </c>
-      <c r="C151">
-        <v>4</v>
-      </c>
-      <c r="D151" t="s">
-        <v>172</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="G151" s="2">
-        <v>42886</v>
-      </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-      <c r="I151" s="3"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A152">
-        <v>150</v>
       </c>
       <c r="B152">
         <v>17</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E152" t="s">
         <v>9</v>
@@ -4968,63 +4979,72 @@
       </c>
       <c r="I152" s="3"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153">
         <v>17</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E153" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="G153" s="2">
+        <v>42886</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
       </c>
       <c r="I153" s="3"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154">
         <v>17</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
       </c>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155">
         <v>17</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156">
         <v>17</v>
@@ -5033,22 +5053,16 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="E156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" s="2">
-        <v>42838</v>
-      </c>
-      <c r="H156">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I156" s="3"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157">
         <v>17</v>
@@ -5057,100 +5071,100 @@
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E157" t="s">
         <v>12</v>
       </c>
-      <c r="G157" s="2">
-        <v>42845</v>
-      </c>
-      <c r="H157">
-        <v>1</v>
-      </c>
       <c r="I157" s="3"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158">
         <v>17</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E158" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="G158" s="2">
+        <v>42838</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
       </c>
       <c r="I158" s="3"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159">
         <v>17</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="G159" s="2">
+        <v>42845</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
       </c>
       <c r="I159" s="3"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C160">
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E160" t="s">
-        <v>12</v>
-      </c>
-      <c r="H160">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I160" s="3"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161">
+        <v>17</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>167</v>
+      </c>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="I161" s="3"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A162">
         <v>159</v>
-      </c>
-      <c r="B161">
-        <v>18</v>
-      </c>
-      <c r="C161">
-        <v>4</v>
-      </c>
-      <c r="D161" t="s">
-        <v>182</v>
-      </c>
-      <c r="E161" t="s">
-        <v>12</v>
-      </c>
-      <c r="H161">
-        <v>1</v>
-      </c>
-      <c r="I161" s="3"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A162">
-        <v>160</v>
       </c>
       <c r="B162">
         <v>18</v>
@@ -5159,19 +5173,19 @@
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E162" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162" s="3"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163">
         <v>18</v>
@@ -5180,16 +5194,19 @@
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E163" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
       </c>
       <c r="I163" s="3"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164">
         <v>18</v>
@@ -5198,155 +5215,149 @@
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E164" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
       </c>
       <c r="I164" s="3"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165">
         <v>18</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
-      </c>
-      <c r="I165" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="I165" s="3"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166">
         <v>18</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E166" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I166" s="3"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167">
         <v>18</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E167" t="s">
-        <v>9</v>
-      </c>
-      <c r="I167" s="3"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="I167" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168">
         <v>18</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I168" s="3"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169">
         <v>18</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="E169" t="s">
+        <v>9</v>
+      </c>
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>167</v>
+      </c>
+      <c r="B170">
+        <v>18</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>174</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>168</v>
+      </c>
+      <c r="B171">
+        <v>18</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>175</v>
+      </c>
+      <c r="E171" t="s">
         <v>20</v>
       </c>
-      <c r="I169" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A170">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>19</v>
-      </c>
-      <c r="C170">
-        <v>4</v>
-      </c>
-      <c r="D170" t="s">
-        <v>191</v>
-      </c>
-      <c r="E170" t="s">
-        <v>9</v>
-      </c>
-      <c r="H170">
-        <v>1</v>
-      </c>
-      <c r="I170" s="3"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A171">
+      <c r="I171" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A172">
         <v>169</v>
-      </c>
-      <c r="B171">
-        <v>19</v>
-      </c>
-      <c r="C171">
-        <v>4</v>
-      </c>
-      <c r="D171" t="s">
-        <v>192</v>
-      </c>
-      <c r="E171" t="s">
-        <v>9</v>
-      </c>
-      <c r="G171" s="2">
-        <v>42978</v>
-      </c>
-      <c r="H171">
-        <v>1</v>
-      </c>
-      <c r="I171" s="3"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A172">
-        <v>170</v>
       </c>
       <c r="B172">
         <v>19</v>
@@ -5355,22 +5366,19 @@
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E172" t="s">
         <v>9</v>
       </c>
-      <c r="G172" t="s">
-        <v>194</v>
-      </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172" s="3"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173">
         <v>19</v>
@@ -5379,58 +5387,70 @@
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E173" t="s">
         <v>9</v>
       </c>
-      <c r="G173" t="s">
-        <v>194</v>
+      <c r="G173" s="2">
+        <v>42978</v>
       </c>
       <c r="H173">
         <v>1</v>
       </c>
       <c r="I173" s="3"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174">
         <v>19</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="E174" t="s">
         <v>9</v>
       </c>
+      <c r="G174" t="s">
+        <v>179</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
       <c r="I174" s="3"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175">
         <v>19</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E175" t="s">
         <v>9</v>
       </c>
+      <c r="G175" t="s">
+        <v>179</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
       <c r="I175" s="3"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B176">
         <v>19</v>
@@ -5439,77 +5459,72 @@
         <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E176" t="s">
         <v>9</v>
       </c>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A177">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177">
         <v>19</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E177" t="s">
-        <v>12</v>
-      </c>
-      <c r="I177" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="I177" s="3"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A178">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178">
         <v>19</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E178" t="s">
         <v>9</v>
       </c>
-      <c r="G178" s="2">
-        <v>42978</v>
-      </c>
       <c r="I178" s="3"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A179">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179">
         <v>19</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E179" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A180">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180">
         <v>19</v>
@@ -5518,40 +5533,39 @@
         <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E180" t="s">
         <v>9</v>
       </c>
-      <c r="H180">
-        <v>1</v>
+      <c r="G180" s="2">
+        <v>42978</v>
       </c>
       <c r="I180" s="3"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A181">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181">
         <v>19</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="E181" t="s">
-        <v>20</v>
-      </c>
-      <c r="H181">
-        <v>1</v>
-      </c>
-      <c r="I181" s="3"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A182">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182">
         <v>19</v>
@@ -5560,124 +5574,121 @@
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E182" t="s">
         <v>9</v>
       </c>
-      <c r="G182" s="2">
-        <v>42978</v>
-      </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182" s="3"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A183">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183">
         <v>19</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D183" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E183" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
       </c>
       <c r="I183" s="3"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A184">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184">
         <v>19</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D184" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E184" t="s">
         <v>9</v>
       </c>
+      <c r="G184" s="2">
+        <v>42978</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
       <c r="I184" s="3"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A185">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185">
         <v>19</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
-      </c>
-      <c r="H185">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I185" s="3"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A186">
+        <v>183</v>
+      </c>
+      <c r="B186">
+        <v>19</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>289</v>
+      </c>
+      <c r="E186" t="s">
+        <v>9</v>
+      </c>
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A187">
         <v>184</v>
       </c>
-      <c r="B186">
-        <v>20</v>
-      </c>
-      <c r="C186">
-        <v>4</v>
-      </c>
-      <c r="D186" t="s">
-        <v>208</v>
-      </c>
-      <c r="E186" t="s">
-        <v>9</v>
-      </c>
-      <c r="H186">
-        <v>1</v>
-      </c>
-      <c r="I186" s="3"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A187">
+      <c r="B187">
+        <v>19</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>191</v>
+      </c>
+      <c r="E187" t="s">
+        <v>9</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+      <c r="I187" s="3"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A188">
         <v>185</v>
-      </c>
-      <c r="B187">
-        <v>20</v>
-      </c>
-      <c r="C187">
-        <v>4</v>
-      </c>
-      <c r="D187" t="s">
-        <v>192</v>
-      </c>
-      <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="G187" s="2">
-        <v>42978</v>
-      </c>
-      <c r="H187">
-        <v>1</v>
-      </c>
-      <c r="I187" s="3"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A188">
-        <v>186</v>
       </c>
       <c r="B188">
         <v>20</v>
@@ -5686,22 +5697,19 @@
         <v>4</v>
       </c>
       <c r="D188" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E188" t="s">
         <v>9</v>
       </c>
-      <c r="G188" s="2">
-        <v>43008</v>
-      </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188" s="3"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A189">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B189">
         <v>20</v>
@@ -5710,19 +5718,22 @@
         <v>4</v>
       </c>
       <c r="D189" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E189" t="s">
         <v>9</v>
       </c>
+      <c r="G189" s="2">
+        <v>42978</v>
+      </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189" s="3"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A190">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190">
         <v>20</v>
@@ -5731,7 +5742,7 @@
         <v>4</v>
       </c>
       <c r="D190" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E190" t="s">
         <v>9</v>
@@ -5744,27 +5755,30 @@
       </c>
       <c r="I190" s="3"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A191">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B191">
         <v>20</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E191" t="s">
         <v>9</v>
       </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
       <c r="I191" s="3"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A192">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192">
         <v>20</v>
@@ -5773,58 +5787,52 @@
         <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="E192" t="s">
         <v>9</v>
       </c>
-      <c r="F192" s="2">
-        <v>42979</v>
-      </c>
       <c r="G192" s="2">
-        <v>43069</v>
+        <v>43008</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
       </c>
       <c r="I192" s="3"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A193">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193">
         <v>20</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D193" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E193" t="s">
-        <v>12</v>
-      </c>
-      <c r="F193" s="2">
-        <v>42979</v>
-      </c>
-      <c r="G193" s="2">
-        <v>43069</v>
+        <v>9</v>
       </c>
       <c r="I193" s="3"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A194">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194">
         <v>20</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D194" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F194" s="2">
         <v>42979</v>
@@ -5834,9 +5842,9 @@
       </c>
       <c r="I194" s="3"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A195">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195">
         <v>20</v>
@@ -5845,16 +5853,22 @@
         <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E195" t="s">
         <v>12</v>
       </c>
+      <c r="F195" s="2">
+        <v>42979</v>
+      </c>
+      <c r="G195" s="2">
+        <v>43069</v>
+      </c>
       <c r="I195" s="3"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A196">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B196">
         <v>20</v>
@@ -5863,94 +5877,94 @@
         <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="F196" s="2">
+        <v>42979</v>
+      </c>
+      <c r="G196" s="2">
+        <v>43069</v>
       </c>
       <c r="I196" s="3"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A197">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197">
         <v>20</v>
       </c>
       <c r="C197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E197" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I197" s="3"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A198">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198">
         <v>20</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I198" s="3"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A199">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199">
         <v>20</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
       </c>
       <c r="I199" s="3"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A200">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200">
         <v>20</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D200" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="E200" t="s">
         <v>9</v>
       </c>
-      <c r="G200" s="2">
-        <v>42978</v>
-      </c>
-      <c r="H200">
-        <v>20</v>
-      </c>
       <c r="I200" s="3"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A201">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B201">
         <v>20</v>
@@ -5959,64 +5973,61 @@
         <v>3</v>
       </c>
       <c r="D201" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
       </c>
-      <c r="G201" s="2">
+      <c r="I201" s="3"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>199</v>
+      </c>
+      <c r="B202">
+        <v>20</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>205</v>
+      </c>
+      <c r="E202" t="s">
+        <v>9</v>
+      </c>
+      <c r="G202" s="2">
+        <v>42978</v>
+      </c>
+      <c r="H202">
+        <v>20</v>
+      </c>
+      <c r="I202" s="3"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>200</v>
+      </c>
+      <c r="B203">
+        <v>20</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203" t="s">
+        <v>206</v>
+      </c>
+      <c r="E203" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" s="2">
         <v>43039</v>
       </c>
-      <c r="I201" s="3"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A202">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>21</v>
-      </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-      <c r="D202" t="s">
-        <v>223</v>
-      </c>
-      <c r="E202" t="s">
-        <v>9</v>
-      </c>
-      <c r="H202">
-        <v>1</v>
-      </c>
-      <c r="I202" s="3"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A203">
+      <c r="I203" s="3"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A204">
         <v>201</v>
-      </c>
-      <c r="B203">
-        <v>21</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-      <c r="D203" t="s">
-        <v>224</v>
-      </c>
-      <c r="E203" t="s">
-        <v>9</v>
-      </c>
-      <c r="G203" s="2">
-        <v>43016</v>
-      </c>
-      <c r="H203">
-        <v>1</v>
-      </c>
-      <c r="I203" s="3"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A204">
-        <v>202</v>
       </c>
       <c r="B204">
         <v>21</v>
@@ -6025,16 +6036,19 @@
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
       </c>
       <c r="I204" s="3"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A205">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B205">
         <v>21</v>
@@ -6043,100 +6057,97 @@
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E205" t="s">
         <v>9</v>
       </c>
+      <c r="G205" s="2">
+        <v>43016</v>
+      </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" s="3"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A206">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206">
         <v>21</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="E206" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I206" s="3"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A207">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B207">
         <v>21</v>
       </c>
       <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>210</v>
+      </c>
+      <c r="E207" t="s">
+        <v>9</v>
+      </c>
+      <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207" s="3"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>205</v>
+      </c>
+      <c r="B208">
+        <v>21</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208" t="s">
+        <v>211</v>
+      </c>
+      <c r="E208" t="s">
+        <v>9</v>
+      </c>
+      <c r="I208" s="3"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>206</v>
+      </c>
+      <c r="B209">
+        <v>21</v>
+      </c>
+      <c r="C209">
         <v>4</v>
       </c>
-      <c r="D207" t="s">
-        <v>228</v>
-      </c>
-      <c r="E207" t="s">
+      <c r="D209" t="s">
+        <v>212</v>
+      </c>
+      <c r="E209" t="s">
         <v>20</v>
       </c>
-      <c r="I207" s="3"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A208">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>22</v>
-      </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-      <c r="D208" t="s">
-        <v>229</v>
-      </c>
-      <c r="E208" t="s">
-        <v>9</v>
-      </c>
-      <c r="G208" s="2">
-        <v>43090</v>
-      </c>
-      <c r="H208">
-        <v>1</v>
-      </c>
-      <c r="I208" s="3"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A209">
+      <c r="I209" s="3"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A210">
         <v>207</v>
-      </c>
-      <c r="B209">
-        <v>22</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-      <c r="D209" t="s">
-        <v>230</v>
-      </c>
-      <c r="E209" t="s">
-        <v>9</v>
-      </c>
-      <c r="H209">
-        <v>2</v>
-      </c>
-      <c r="I209" s="3"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A210">
-        <v>208</v>
       </c>
       <c r="B210">
         <v>22</v>
@@ -6145,58 +6156,64 @@
         <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="E210" t="s">
         <v>9</v>
       </c>
+      <c r="G210" s="2">
+        <v>43090</v>
+      </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" s="3"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A211">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B211">
         <v>22</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E211" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I211" s="3"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A212">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B212">
         <v>22</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
       </c>
       <c r="I212" s="3"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A213">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B213">
         <v>22</v>
@@ -6205,34 +6222,37 @@
         <v>2</v>
       </c>
       <c r="D213" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="H213">
+        <v>4</v>
       </c>
       <c r="I213" s="3"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A214">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B214">
         <v>22</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D214" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I214" s="3"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A215">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B215">
         <v>22</v>
@@ -6241,91 +6261,88 @@
         <v>2</v>
       </c>
       <c r="D215" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E215" t="s">
         <v>12</v>
       </c>
       <c r="I215" s="3"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A216">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B216">
         <v>22</v>
       </c>
       <c r="C216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D216" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E216" t="s">
         <v>9</v>
       </c>
       <c r="I216" s="3"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A217">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B217">
         <v>22</v>
       </c>
       <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>220</v>
+      </c>
+      <c r="E217" t="s">
+        <v>12</v>
+      </c>
+      <c r="I217" s="3"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>215</v>
+      </c>
+      <c r="B218">
+        <v>22</v>
+      </c>
+      <c r="C218">
+        <v>4</v>
+      </c>
+      <c r="D218" t="s">
+        <v>221</v>
+      </c>
+      <c r="E218" t="s">
+        <v>9</v>
+      </c>
+      <c r="I218" s="3"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>216</v>
+      </c>
+      <c r="B219">
+        <v>22</v>
+      </c>
+      <c r="C219">
         <v>3</v>
       </c>
-      <c r="D217" t="s">
-        <v>238</v>
-      </c>
-      <c r="E217" t="s">
-        <v>9</v>
-      </c>
-      <c r="I217" s="3"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A218">
-        <v>216</v>
-      </c>
-      <c r="B218">
-        <v>23</v>
-      </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-      <c r="D218" t="s">
-        <v>239</v>
-      </c>
-      <c r="E218" t="s">
-        <v>9</v>
-      </c>
-      <c r="I218" s="3"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A219">
+      <c r="D219" t="s">
+        <v>222</v>
+      </c>
+      <c r="E219" t="s">
+        <v>9</v>
+      </c>
+      <c r="I219" s="3"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A220">
         <v>217</v>
-      </c>
-      <c r="B219">
-        <v>23</v>
-      </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-      <c r="D219" t="s">
-        <v>240</v>
-      </c>
-      <c r="E219" t="s">
-        <v>20</v>
-      </c>
-      <c r="H219">
-        <v>1</v>
-      </c>
-      <c r="I219" s="3"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A220">
-        <v>218</v>
       </c>
       <c r="B220">
         <v>23</v>
@@ -6334,57 +6351,58 @@
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="E220" t="s">
         <v>9</v>
       </c>
-      <c r="H220">
-        <v>2</v>
-      </c>
       <c r="I220" s="3"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A221">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B221">
         <v>23</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E221" t="s">
         <v>20</v>
       </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
       <c r="I221" s="3"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A222">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B222">
         <v>23</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>20</v>
-      </c>
-      <c r="I222" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222" s="3"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A223">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B223">
         <v>23</v>
@@ -6393,40 +6411,36 @@
         <v>2</v>
       </c>
       <c r="D223" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E223" t="s">
         <v>20</v>
       </c>
-      <c r="H223">
-        <v>2</v>
-      </c>
       <c r="I223" s="3"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A224">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B224">
         <v>23</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="E224" t="s">
-        <v>12</v>
-      </c>
-      <c r="H224">
-        <v>2</v>
-      </c>
-      <c r="I224" s="3"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A225">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B225">
         <v>23</v>
@@ -6435,40 +6449,40 @@
         <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="E225" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H225">
         <v>2</v>
       </c>
       <c r="I225" s="3"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A226">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B226">
         <v>23</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D226" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I226" s="3"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A227">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B227">
         <v>23</v>
@@ -6477,16 +6491,19 @@
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="E227" t="s">
         <v>12</v>
       </c>
+      <c r="H227">
+        <v>2</v>
+      </c>
       <c r="I227" s="3"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A228">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B228">
         <v>23</v>
@@ -6495,16 +6512,19 @@
         <v>1</v>
       </c>
       <c r="D228" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="H228">
+        <v>4</v>
       </c>
       <c r="I228" s="3"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A229">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B229">
         <v>23</v>
@@ -6513,16 +6533,16 @@
         <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I229" s="3"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A230">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B230">
         <v>23</v>
@@ -6531,55 +6551,52 @@
         <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="E230" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I230" s="3"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A231">
+        <v>228</v>
+      </c>
+      <c r="B231">
+        <v>23</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>234</v>
+      </c>
+      <c r="E231" t="s">
+        <v>20</v>
+      </c>
+      <c r="I231" s="3"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A232">
         <v>229</v>
       </c>
-      <c r="B231">
-        <v>24</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231" t="s">
-        <v>252</v>
-      </c>
-      <c r="E231" t="s">
-        <v>9</v>
-      </c>
-      <c r="H231">
-        <v>4</v>
-      </c>
-      <c r="I231" s="3"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A232">
+      <c r="B232">
+        <v>23</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>235</v>
+      </c>
+      <c r="E232" t="s">
+        <v>12</v>
+      </c>
+      <c r="I232" s="3"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A233">
         <v>230</v>
-      </c>
-      <c r="B232">
-        <v>24</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232" t="s">
-        <v>253</v>
-      </c>
-      <c r="E232" t="s">
-        <v>9</v>
-      </c>
-      <c r="I232" s="3"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A233">
-        <v>231</v>
       </c>
       <c r="B233">
         <v>24</v>
@@ -6588,37 +6605,37 @@
         <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E233" t="s">
         <v>9</v>
       </c>
+      <c r="H233">
+        <v>4</v>
+      </c>
       <c r="I233" s="3"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A234">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B234">
         <v>24</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="E234" t="s">
-        <v>12</v>
-      </c>
-      <c r="H234">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I234" s="3"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A235">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B235">
         <v>24</v>
@@ -6627,22 +6644,16 @@
         <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="E235" t="s">
         <v>9</v>
       </c>
-      <c r="G235" s="2">
-        <v>43830</v>
-      </c>
-      <c r="H235">
-        <v>2</v>
-      </c>
       <c r="I235" s="3"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A236">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B236">
         <v>24</v>
@@ -6651,34 +6662,43 @@
         <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="E236" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="H236">
+        <v>4</v>
       </c>
       <c r="I236" s="3"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A237">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B237">
         <v>24</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="E237" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G237" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H237">
+        <v>2</v>
       </c>
       <c r="I237" s="3"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A238">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B238">
         <v>24</v>
@@ -6687,268 +6707,262 @@
         <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E238" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I238" s="3"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A239">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B239">
         <v>24</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="E239" t="s">
         <v>12</v>
       </c>
-      <c r="G239" s="2">
-        <v>43281</v>
-      </c>
       <c r="I239" s="3"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A240">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B240">
         <v>24</v>
       </c>
       <c r="C240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="E240" t="s">
-        <v>9</v>
-      </c>
-      <c r="G240" s="2">
-        <v>43343</v>
-      </c>
-      <c r="H240">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I240" s="3"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A241">
+        <v>238</v>
+      </c>
+      <c r="B241">
+        <v>24</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+      <c r="D241" t="s">
+        <v>244</v>
+      </c>
+      <c r="E241" t="s">
+        <v>12</v>
+      </c>
+      <c r="G241" s="2">
+        <v>43281</v>
+      </c>
+      <c r="I241" s="3"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A242">
         <v>239</v>
       </c>
-      <c r="B241">
-        <v>25</v>
-      </c>
-      <c r="C241">
-        <v>2</v>
-      </c>
-      <c r="D241" t="s">
-        <v>262</v>
-      </c>
-      <c r="E241" t="s">
-        <v>9</v>
-      </c>
-      <c r="H241" t="s">
-        <v>263</v>
-      </c>
-      <c r="I241" s="3"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A242">
-        <v>240</v>
-      </c>
       <c r="B242">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C242">
         <v>4</v>
       </c>
       <c r="D242" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E242" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G242" s="2">
+        <v>43343</v>
       </c>
       <c r="H242">
         <v>1</v>
       </c>
       <c r="I242" s="3"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A243">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B243">
         <v>25</v>
       </c>
       <c r="C243">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E243" t="s">
         <v>9</v>
       </c>
-      <c r="H243">
-        <v>1</v>
+      <c r="H243" t="s">
+        <v>247</v>
       </c>
       <c r="I243" s="3"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A244">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B244">
         <v>25</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E244" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
       </c>
       <c r="I244" s="3"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A245">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B245">
         <v>25</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D245" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E245" t="s">
         <v>9</v>
       </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
       <c r="I245" s="3"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A246">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B246">
         <v>25</v>
       </c>
       <c r="C246">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E246" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I246" s="3"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A247">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B247">
         <v>25</v>
       </c>
       <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>251</v>
+      </c>
+      <c r="E247" t="s">
+        <v>9</v>
+      </c>
+      <c r="I247" s="3"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>245</v>
+      </c>
+      <c r="B248">
+        <v>25</v>
+      </c>
+      <c r="C248">
+        <v>4</v>
+      </c>
+      <c r="D248" t="s">
+        <v>252</v>
+      </c>
+      <c r="E248" t="s">
+        <v>12</v>
+      </c>
+      <c r="I248" s="3"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <v>246</v>
+      </c>
+      <c r="B249">
+        <v>25</v>
+      </c>
+      <c r="C249">
         <v>3</v>
       </c>
-      <c r="D247" t="s">
-        <v>269</v>
-      </c>
-      <c r="E247" t="s">
-        <v>9</v>
-      </c>
-      <c r="I247" s="3"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A248">
-        <v>246</v>
-      </c>
-      <c r="B248">
-        <v>26</v>
-      </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="D248" t="s">
-        <v>270</v>
-      </c>
-      <c r="E248" t="s">
-        <v>9</v>
-      </c>
-      <c r="H248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="3"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A249">
+      <c r="D249" t="s">
+        <v>253</v>
+      </c>
+      <c r="E249" t="s">
+        <v>9</v>
+      </c>
+      <c r="I249" s="3"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A250">
         <v>247</v>
-      </c>
-      <c r="B249">
-        <v>26</v>
-      </c>
-      <c r="C249">
-        <v>4</v>
-      </c>
-      <c r="D249" t="s">
-        <v>271</v>
-      </c>
-      <c r="E249" t="s">
-        <v>9</v>
-      </c>
-      <c r="G249" s="2">
-        <v>43496</v>
-      </c>
-      <c r="H249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="3"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A250">
-        <v>248</v>
       </c>
       <c r="B250">
         <v>26</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E250" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
       </c>
       <c r="I250" s="3"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A251">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B251">
         <v>26</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E251" t="s">
         <v>9</v>
@@ -6957,49 +6971,55 @@
         <v>43496</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" s="3"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A252">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B252">
         <v>26</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D252" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E252" t="s">
         <v>20</v>
       </c>
       <c r="I252" s="3"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A253">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B253">
         <v>26</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="E253" t="s">
         <v>9</v>
       </c>
+      <c r="G253" s="2">
+        <v>43496</v>
+      </c>
+      <c r="H253">
+        <v>2</v>
+      </c>
       <c r="I253" s="3"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A254">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B254">
         <v>26</v>
@@ -7008,19 +7028,16 @@
         <v>1</v>
       </c>
       <c r="D254" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E254" t="s">
-        <v>9</v>
-      </c>
-      <c r="H254">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I254" s="3"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A255">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B255">
         <v>26</v>
@@ -7029,34 +7046,37 @@
         <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E255" t="s">
         <v>9</v>
       </c>
       <c r="I255" s="3"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A256">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B256">
         <v>26</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="E256" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H256">
+        <v>4</v>
       </c>
       <c r="I256" s="3"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A257">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257">
         <v>26</v>
@@ -7065,64 +7085,52 @@
         <v>2</v>
       </c>
       <c r="D257" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="E257" t="s">
         <v>9</v>
       </c>
       <c r="I257" s="3"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A258">
+        <v>255</v>
+      </c>
+      <c r="B258">
+        <v>26</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>262</v>
+      </c>
+      <c r="E258" t="s">
+        <v>12</v>
+      </c>
+      <c r="I258" s="3"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A259">
         <v>256</v>
       </c>
-      <c r="B258">
-        <v>27</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258" t="s">
-        <v>280</v>
-      </c>
-      <c r="E258" t="s">
-        <v>9</v>
-      </c>
-      <c r="F258" s="2">
-        <v>43530</v>
-      </c>
-      <c r="H258">
-        <v>1</v>
-      </c>
-      <c r="I258" s="3"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A259">
+      <c r="B259">
+        <v>26</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>263</v>
+      </c>
+      <c r="E259" t="s">
+        <v>9</v>
+      </c>
+      <c r="I259" s="3"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A260">
         <v>257</v>
-      </c>
-      <c r="B259">
-        <v>27</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259" t="s">
-        <v>281</v>
-      </c>
-      <c r="E259" t="s">
-        <v>9</v>
-      </c>
-      <c r="G259" s="2">
-        <v>43646</v>
-      </c>
-      <c r="H259">
-        <v>1</v>
-      </c>
-      <c r="I259" s="3"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A260">
-        <v>258</v>
       </c>
       <c r="B260">
         <v>27</v>
@@ -7131,144 +7139,150 @@
         <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E260" t="s">
         <v>9</v>
       </c>
-      <c r="G260" s="2">
-        <v>43677</v>
+      <c r="F260" s="2">
+        <v>43530</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
       </c>
       <c r="I260" s="3"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A261">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B261">
         <v>27</v>
       </c>
       <c r="C261">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="E261" t="s">
         <v>9</v>
       </c>
+      <c r="G261" s="2">
+        <v>43646</v>
+      </c>
       <c r="H261">
         <v>1</v>
       </c>
       <c r="I261" s="3"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A262">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262">
         <v>27</v>
       </c>
       <c r="C262">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E262" t="s">
         <v>9</v>
       </c>
-      <c r="H262">
-        <v>1</v>
+      <c r="G262" s="2">
+        <v>43677</v>
       </c>
       <c r="I262" s="3"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A263">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B263">
         <v>27</v>
       </c>
       <c r="C263">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D263" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="E263" t="s">
         <v>9</v>
       </c>
-      <c r="G263" s="2">
-        <v>43311</v>
-      </c>
-      <c r="I263" s="3">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263" s="3"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A264">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B264">
         <v>27</v>
       </c>
       <c r="C264">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D264" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E264" t="s">
         <v>9</v>
       </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
       <c r="I264" s="3"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A265">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B265">
         <v>27</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D265" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="E265" t="s">
-        <v>20</v>
-      </c>
-      <c r="H265">
-        <v>2</v>
-      </c>
-      <c r="I265" s="3"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="G265" s="2">
+        <v>43311</v>
+      </c>
+      <c r="I265" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A266">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B266">
         <v>27</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D266" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="E266" t="s">
         <v>9</v>
       </c>
-      <c r="H266">
-        <v>2</v>
-      </c>
       <c r="I266" s="3"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A267">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B267">
         <v>27</v>
@@ -7277,41 +7291,40 @@
         <v>2</v>
       </c>
       <c r="D267" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E267" t="s">
-        <v>12</v>
-      </c>
-      <c r="G267" s="2">
-        <v>43527</v>
-      </c>
-      <c r="I267" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="H267">
+        <v>2</v>
+      </c>
+      <c r="I267" s="3"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A268">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B268">
         <v>27</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="E268" t="s">
-        <v>20</v>
-      </c>
-      <c r="I268" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="H268">
+        <v>2</v>
+      </c>
+      <c r="I268" s="3"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A269">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B269">
         <v>27</v>
@@ -7320,30 +7333,342 @@
         <v>2</v>
       </c>
       <c r="D269" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="E269" t="s">
-        <v>9</v>
-      </c>
-      <c r="I269" s="3"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="G269" s="2">
+        <v>43527</v>
+      </c>
+      <c r="I269" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A270">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B270">
         <v>27</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="E270" t="s">
-        <v>9</v>
-      </c>
-      <c r="I270" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="I270" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>268</v>
+      </c>
+      <c r="B271">
+        <v>27</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>274</v>
+      </c>
+      <c r="E271" t="s">
+        <v>9</v>
+      </c>
+      <c r="I271" s="3"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A272">
+        <v>269</v>
+      </c>
+      <c r="B272">
+        <v>27</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272" t="s">
+        <v>275</v>
+      </c>
+      <c r="E272" t="s">
+        <v>9</v>
+      </c>
+      <c r="I272" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I272" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1B68EF-FD25-4D77-982F-64D07EE01189}">
+  <dimension ref="A2:C24"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="6">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="6">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>22</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="6">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
